--- a/outputs/annotation_data/annotation_guide_final.xlsx
+++ b/outputs/annotation_data/annotation_guide_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminsarkhosh/Documents/GitHub/machine-learning-bsc-thesis-2024/outputs/annotation_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D298C-D1DF-624D-89BA-9C76E622D403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC365BF-7D5A-194C-950E-D71972D0ED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="740" windowWidth="16320" windowHeight="18900" xr2:uid="{0DB378F5-0B81-D340-BF09-E15AB9EF3B3B}"/>
+    <workbookView xWindow="17500" yWindow="740" windowWidth="12740" windowHeight="18900" xr2:uid="{0DB378F5-0B81-D340-BF09-E15AB9EF3B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="annotation_guide" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
   <si>
     <t>Annotation guide</t>
   </si>
@@ -572,6 +572,21 @@
   </si>
   <si>
     <t>quantity of private datasets</t>
+  </si>
+  <si>
+    <t>sex-specific cancer</t>
+  </si>
+  <si>
+    <t>Annotate ‘1’ if the cancer is sex-specific: cancer is determined/related to one sex only: use the column "organ" as guideline.</t>
+  </si>
+  <si>
+    <t>"Male Reproductive System"  : ['penis', 'prostate', 'testis']
+Female Reproductive System": ['cervix', 'uterus', 'vagina']</t>
+  </si>
+  <si>
+    <t>"774 consecutive bi-parametric prostate mri examinations are included in this
+study"
+From above example the dataset contains data from sex-specific cancer</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1160,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1244,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>87</v>
       </c>
@@ -1426,7 +1441,7 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>100</v>
       </c>
@@ -1445,8 +1460,11 @@
       <c r="F33" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>115</v>
       </c>
@@ -1465,8 +1483,11 @@
       <c r="F34" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -1485,8 +1506,11 @@
       <c r="F35" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1504,6 +1528,9 @@
       </c>
       <c r="F36" s="6" t="s">
         <v>125</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1622,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
